--- a/exceldata.xlsx
+++ b/exceldata.xlsx
@@ -33,13 +33,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>xyz@abc.com</t>
+    <t>row column starts from 0 and same for row</t>
   </si>
   <si>
-    <t>Abc@12345</t>
+    <t>Abc@1357</t>
   </si>
   <si>
-    <t>row column starts from 0 and same for row</t>
+    <t>people@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,7 +390,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
